--- a/NMB_Map/src/algorithm/data/nodes/nodes.xlsx
+++ b/NMB_Map/src/algorithm/data/nodes/nodes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\python\Pathfinding algorithms\data\nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\软件工程\NMBNavigation-Backend\NMB_Map\src\algorithm\data\nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E616E1-AECF-4DA5-BBC2-02ADEA49BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E5834-B97F-4099-AC49-432BD93C4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1140" windowWidth="17280" windowHeight="8964" firstSheet="21" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="955">
   <si>
     <t>4,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3871,6 +3871,22 @@
   </si>
   <si>
     <t>G521,G522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20696,7 +20712,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20783,7 +20799,7 @@
         <v>932</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20801,7 +20817,7 @@
         <v>935</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -21338,6 +21354,9 @@
       <c r="D39" s="1" t="s">
         <v>934</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -21352,10 +21371,14 @@
       <c r="D40" s="1" t="s">
         <v>933</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NMB_Map/src/algorithm/data/nodes/nodes.xlsx
+++ b/NMB_Map/src/algorithm/data/nodes/nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\软件工程\NMBNavigation-Backend\NMB_Map\src\algorithm\data\nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E5834-B97F-4099-AC49-432BD93C4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC9930-8B98-4775-AA72-E6E5C0D86298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1140" windowWidth="17280" windowHeight="8964" firstSheet="21" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="962">
   <si>
     <t>4,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1514,10 +1514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,19,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,10,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,10 +1554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,20,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19,22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3887,6 +3879,42 @@
   </si>
   <si>
     <t>2,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,16,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,51,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,20,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4882,7 +4910,7 @@
         <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -4913,7 +4941,7 @@
         <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -4930,7 +4958,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -4947,7 +4975,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>143</v>
@@ -4978,7 +5006,7 @@
         <v>1158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>228</v>
@@ -4995,10 +5023,10 @@
         <v>1344</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,7 +5040,7 @@
         <v>2148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5054,7 +5082,7 @@
         <v>2542</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>95</v>
@@ -5071,7 +5099,7 @@
         <v>2760</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>148</v>
@@ -5102,7 +5130,7 @@
         <v>3020</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>230</v>
@@ -5119,7 +5147,7 @@
         <v>3273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -5136,7 +5164,7 @@
         <v>3494</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>231</v>
@@ -5167,7 +5195,7 @@
         <v>3494</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
@@ -5184,7 +5212,7 @@
         <v>3308</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>233</v>
@@ -5201,7 +5229,7 @@
         <v>2725</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>234</v>
@@ -5218,7 +5246,7 @@
         <v>2541</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>235</v>
@@ -5235,7 +5263,7 @@
         <v>2288</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>236</v>
@@ -5266,7 +5294,7 @@
         <v>2148</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>238</v>
@@ -5395,7 +5423,7 @@
         <v>1368</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -5412,7 +5440,7 @@
         <v>1187</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>246</v>
@@ -5429,7 +5457,7 @@
         <v>1007</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>247</v>
@@ -5446,7 +5474,7 @@
         <v>850</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>248</v>
@@ -5491,7 +5519,7 @@
         <v>442</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>250</v>
@@ -5522,7 +5550,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -5567,10 +5595,10 @@
         <v>1643</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5584,10 +5612,10 @@
         <v>1885</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6122,7 @@
         <v>1156</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>278</v>
@@ -6531,10 +6559,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A97849-E435-4CEC-9136-C5E4631D363D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:E19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6568,7 +6596,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6582,7 +6610,7 @@
         <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -6614,7 +6642,7 @@
         <v>352</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -6631,7 +6659,7 @@
         <v>520</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -6678,7 +6706,7 @@
         <v>1166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>228</v>
@@ -6695,7 +6723,7 @@
         <v>1166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -6712,7 +6740,7 @@
         <v>1166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
@@ -6820,7 +6848,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>283</v>
+        <v>955</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6834,10 +6862,38 @@
         <v>1166</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>425</v>
+      </c>
+      <c r="C20" s="1">
+        <v>438</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>425</v>
+      </c>
+      <c r="C21" s="1">
+        <v>191</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +6957,7 @@
         <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -6932,7 +6988,7 @@
         <v>352</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -6949,10 +7005,10 @@
         <v>520</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6994,7 +7050,7 @@
         <v>1166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>228</v>
@@ -7011,7 +7067,7 @@
         <v>1166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
@@ -7028,7 +7084,7 @@
         <v>1166</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E11" s="1">
         <v>15</v>
@@ -7143,7 +7199,7 @@
         <v>1166</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>284</v>
@@ -7160,10 +7216,10 @@
         <v>814</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7177,10 +7233,10 @@
         <v>1093</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -7191,10 +7247,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21573F0-4097-4877-B238-7F64CEECC0E1}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7504,7 +7560,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>956</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -7520,7 +7576,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>231</v>
+        <v>957</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -7915,6 +7971,20 @@
         <v>39</v>
       </c>
       <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1">
+        <v>610</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>958</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7924,10 +7994,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393132A-FDD4-485D-87F7-B6B3947EC051}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8077,7 +8147,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>361</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8095,7 +8165,7 @@
         <v>334</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8111,7 +8181,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8127,7 +8197,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8143,7 +8213,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8158,10 +8228,10 @@
         <v>424</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,7 +8247,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,7 +8263,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8209,7 +8279,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,7 +8295,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,10 +8310,10 @@
         <v>534</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8259,7 +8329,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>372</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8293,7 +8363,7 @@
         <v>353</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,7 +8435,7 @@
         <v>349</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8415,7 +8485,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8449,7 +8519,7 @@
         <v>345</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8467,7 +8537,7 @@
         <v>344</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,7 +8555,7 @@
         <v>343</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,7 +8571,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,7 +8589,7 @@
         <v>342</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8537,7 +8607,7 @@
         <v>341</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8555,7 +8625,7 @@
         <v>339</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8571,7 +8641,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8621,7 +8691,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8653,7 +8723,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8669,7 +8739,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -8703,7 +8773,7 @@
         <v>340</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -8721,7 +8791,7 @@
         <v>346</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8739,7 +8809,7 @@
         <v>347</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -8755,7 +8825,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8771,7 +8841,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8788,12 +8858,28 @@
         <v>335</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1181</v>
+      </c>
+      <c r="C52" s="1">
+        <v>260</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>961</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8853,10 +8939,10 @@
         <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8871,7 +8957,7 @@
         <v>357</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -8889,7 +8975,7 @@
         <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -8907,7 +8993,7 @@
         <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -8925,7 +9011,7 @@
         <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -8943,7 +9029,7 @@
         <v>357</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -8961,7 +9047,7 @@
         <v>357</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8991,7 +9077,7 @@
         <v>357</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9006,7 +9092,7 @@
         <v>588</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9021,7 +9107,7 @@
         <v>588</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9036,7 +9122,7 @@
         <v>588</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9066,7 +9152,7 @@
         <v>359</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9096,10 +9182,10 @@
         <v>359</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9114,7 +9200,7 @@
         <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>231</v>
@@ -9132,7 +9218,7 @@
         <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -9150,7 +9236,7 @@
         <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -9168,10 +9254,10 @@
         <v>359</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9186,7 +9272,7 @@
         <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -9219,7 +9305,7 @@
         <v>747</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -9234,7 +9320,7 @@
         <v>830</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9264,7 +9350,7 @@
         <v>830</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -9309,7 +9395,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -9327,10 +9413,10 @@
         <v>895</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -9345,7 +9431,7 @@
         <v>895</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
@@ -9363,10 +9449,10 @@
         <v>895</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9381,10 +9467,10 @@
         <v>895</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9399,7 +9485,7 @@
         <v>895</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -9417,10 +9503,10 @@
         <v>895</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9435,10 +9521,10 @@
         <v>895</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9453,10 +9539,10 @@
         <v>895</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9471,10 +9557,10 @@
         <v>895</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9489,7 +9575,7 @@
         <v>895</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -9504,7 +9590,7 @@
         <v>895</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -9519,7 +9605,7 @@
         <v>895</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>198</v>
@@ -9537,10 +9623,10 @@
         <v>895</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -9555,10 +9641,10 @@
         <v>895</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -9573,10 +9659,10 @@
         <v>895</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -9591,7 +9677,7 @@
         <v>895</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,10 +9707,10 @@
         <v>895</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -9639,10 +9725,10 @@
         <v>895</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -9657,10 +9743,10 @@
         <v>895</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -9690,7 +9776,7 @@
         <v>895</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -9705,7 +9791,7 @@
         <v>895</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9784,10 +9870,10 @@
         <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9802,7 +9888,7 @@
         <v>357</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -9820,7 +9906,7 @@
         <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -9838,7 +9924,7 @@
         <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -9856,7 +9942,7 @@
         <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -9874,7 +9960,7 @@
         <v>357</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -9893,7 +9979,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9925,7 +10011,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9941,7 +10027,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9957,7 +10043,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9973,7 +10059,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10005,7 +10091,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -10036,10 +10122,10 @@
         <v>359</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -10054,7 +10140,7 @@
         <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>231</v>
@@ -10072,7 +10158,7 @@
         <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -10090,7 +10176,7 @@
         <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -10108,10 +10194,10 @@
         <v>359</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -10126,7 +10212,7 @@
         <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -10161,7 +10247,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10177,7 +10263,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10209,7 +10295,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10256,7 +10342,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -10274,10 +10360,10 @@
         <v>895</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -10292,7 +10378,7 @@
         <v>895</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
@@ -10310,10 +10396,10 @@
         <v>895</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -10328,10 +10414,10 @@
         <v>895</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -10346,7 +10432,7 @@
         <v>895</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -10364,10 +10450,10 @@
         <v>895</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -10382,10 +10468,10 @@
         <v>895</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -10400,10 +10486,10 @@
         <v>895</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -10418,10 +10504,10 @@
         <v>895</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -10437,7 +10523,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -10453,7 +10539,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -10468,7 +10554,7 @@
         <v>895</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>198</v>
@@ -10486,10 +10572,10 @@
         <v>895</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10504,10 +10590,10 @@
         <v>895</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -10522,10 +10608,10 @@
         <v>895</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -10541,7 +10627,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -10572,10 +10658,10 @@
         <v>895</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -10590,10 +10676,10 @@
         <v>895</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -10608,10 +10694,10 @@
         <v>895</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -10643,7 +10729,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -10659,7 +10745,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -11375,10 +11461,10 @@
         <v>357</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11393,7 +11479,7 @@
         <v>357</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -11411,7 +11497,7 @@
         <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -11429,7 +11515,7 @@
         <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -11447,7 +11533,7 @@
         <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -11465,7 +11551,7 @@
         <v>357</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -11484,7 +11570,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -11516,7 +11602,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11532,7 +11618,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -11548,7 +11634,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -11564,7 +11650,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11596,7 +11682,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11627,10 +11713,10 @@
         <v>359</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -11645,7 +11731,7 @@
         <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>231</v>
@@ -11663,7 +11749,7 @@
         <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -11681,7 +11767,7 @@
         <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -11699,10 +11785,10 @@
         <v>359</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -11717,7 +11803,7 @@
         <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -11752,7 +11838,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -11768,7 +11854,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -11800,7 +11886,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -11847,7 +11933,7 @@
         <v>895</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -11865,10 +11951,10 @@
         <v>895</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -11883,7 +11969,7 @@
         <v>895</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
@@ -11901,10 +11987,10 @@
         <v>895</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -11919,10 +12005,10 @@
         <v>895</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -11937,7 +12023,7 @@
         <v>895</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -11955,10 +12041,10 @@
         <v>895</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -11973,10 +12059,10 @@
         <v>895</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -11991,10 +12077,10 @@
         <v>895</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -12009,10 +12095,10 @@
         <v>895</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -12028,7 +12114,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -12044,7 +12130,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -12059,7 +12145,7 @@
         <v>895</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>198</v>
@@ -12077,10 +12163,10 @@
         <v>895</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -12095,10 +12181,10 @@
         <v>895</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -12113,10 +12199,10 @@
         <v>895</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -12132,7 +12218,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -12163,10 +12249,10 @@
         <v>895</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -12181,10 +12267,10 @@
         <v>895</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -12199,10 +12285,10 @@
         <v>895</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -12234,7 +12320,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -12250,7 +12336,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -12316,7 +12402,7 @@
         <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -12334,7 +12420,7 @@
         <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -12352,7 +12438,7 @@
         <v>536</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12367,7 +12453,7 @@
         <v>536</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12397,7 +12483,7 @@
         <v>536</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12442,10 +12528,10 @@
         <v>848</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12460,7 +12546,7 @@
         <v>848</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12475,7 +12561,7 @@
         <v>848</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -12493,7 +12579,7 @@
         <v>848</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -12511,7 +12597,7 @@
         <v>848</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -12592,7 +12678,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12607,7 +12693,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -12642,7 +12728,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12657,7 +12743,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -12676,7 +12762,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12691,7 +12777,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -12709,7 +12795,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -12727,7 +12813,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -12746,7 +12832,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12761,7 +12847,7 @@
         <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -12779,10 +12865,10 @@
         <v>308</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12814,7 +12900,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12830,7 +12916,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12926,7 +13012,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12941,7 +13027,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -12976,7 +13062,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12991,7 +13077,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -13010,7 +13096,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13025,7 +13111,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -13043,7 +13129,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -13061,7 +13147,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -13080,7 +13166,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13095,7 +13181,7 @@
         <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -13113,10 +13199,10 @@
         <v>308</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13148,7 +13234,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13164,7 +13250,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13260,7 +13346,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13275,7 +13361,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -13310,7 +13396,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13325,7 +13411,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -13344,7 +13430,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13359,7 +13445,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -13377,7 +13463,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -13395,7 +13481,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -13414,7 +13500,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13429,7 +13515,7 @@
         <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -13447,10 +13533,10 @@
         <v>308</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13482,7 +13568,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13498,7 +13584,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13596,7 +13682,7 @@
         <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13611,7 +13697,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -13644,7 +13730,7 @@
         <v>680</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13659,7 +13745,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -13677,7 +13763,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13692,7 +13778,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -13710,7 +13796,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -13728,7 +13814,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -13746,7 +13832,7 @@
         <v>1000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13761,10 +13847,10 @@
         <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13779,10 +13865,10 @@
         <v>308</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -13812,7 +13898,7 @@
         <v>887</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13827,7 +13913,7 @@
         <v>680</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -13886,10 +13972,10 @@
         <v>934</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -13903,10 +13989,10 @@
         <v>713</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -13953,7 +14039,7 @@
         <v>3217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -13971,7 +14057,7 @@
         <v>3035</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -13990,7 +14076,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -14021,10 +14107,10 @@
         <v>2301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14071,7 +14157,7 @@
         <v>2054</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>228</v>
@@ -14090,7 +14176,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14105,7 +14191,7 @@
         <v>1292</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -14123,7 +14209,7 @@
         <v>1084</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -14142,7 +14228,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14173,7 +14259,7 @@
         <v>366</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>96</v>
@@ -14192,7 +14278,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14207,10 +14293,10 @@
         <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14226,7 +14312,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14241,10 +14327,10 @@
         <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14276,7 +14362,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14292,7 +14378,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14339,10 +14425,10 @@
         <v>844</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -14357,10 +14443,10 @@
         <v>1026</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -14391,7 +14477,7 @@
         <v>1272</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -14410,7 +14496,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -14426,7 +14512,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -14474,7 +14560,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -14489,7 +14575,7 @@
         <v>2269</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
@@ -14507,10 +14593,10 @@
         <v>2525</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -14525,7 +14611,7 @@
         <v>2712</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -14626,10 +14712,10 @@
         <v>3555</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -14644,7 +14730,7 @@
         <v>3412</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -14659,7 +14745,7 @@
         <v>3213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -14677,7 +14763,7 @@
         <v>2658</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -14707,7 +14793,7 @@
         <v>2392</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>293</v>
@@ -14755,7 +14841,7 @@
         <v>2069</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14770,7 +14856,7 @@
         <v>1317</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -14788,7 +14874,7 @@
         <v>1074</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -14806,7 +14892,7 @@
         <v>902</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14836,7 +14922,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>96</v>
@@ -14854,7 +14940,7 @@
         <v>227</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14869,10 +14955,10 @@
         <v>142</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14887,10 +14973,10 @@
         <v>227</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14905,10 +14991,10 @@
         <v>227</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14938,7 +15024,7 @@
         <v>227</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14953,7 +15039,7 @@
         <v>533</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -14998,10 +15084,10 @@
         <v>828</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -15016,10 +15102,10 @@
         <v>1011</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -15049,7 +15135,7 @@
         <v>1242</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -15067,7 +15153,7 @@
         <v>1713</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -15082,7 +15168,7 @@
         <v>1713</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -15127,7 +15213,7 @@
         <v>1920</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -15142,7 +15228,7 @@
         <v>2067</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -15157,7 +15243,7 @@
         <v>2422</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -15172,7 +15258,7 @@
         <v>2517</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -15190,7 +15276,7 @@
         <v>2709</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>246</v>
@@ -15208,7 +15294,7 @@
         <v>3036</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -15253,7 +15339,7 @@
         <v>3412</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -15268,7 +15354,7 @@
         <v>3555</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -15283,10 +15369,10 @@
         <v>3412</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15301,10 +15387,10 @@
         <v>3412</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -15319,10 +15405,10 @@
         <v>2422</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -15337,7 +15423,7 @@
         <v>2067</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -15352,10 +15438,10 @@
         <v>2067</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -15370,10 +15456,10 @@
         <v>2067</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -15423,10 +15509,10 @@
         <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15441,7 +15527,7 @@
         <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15456,7 +15542,7 @@
         <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -15474,10 +15560,10 @@
         <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15492,7 +15578,7 @@
         <v>640</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -15522,10 +15608,10 @@
         <v>940</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15540,7 +15626,7 @@
         <v>1136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -15558,7 +15644,7 @@
         <v>1320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -15606,7 +15692,7 @@
         <v>1760</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15621,7 +15707,7 @@
         <v>1760</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15666,7 +15752,7 @@
         <v>1960</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15696,7 +15782,7 @@
         <v>2100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15711,7 +15797,7 @@
         <v>2268</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -15729,7 +15815,7 @@
         <v>2471</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -15747,10 +15833,10 @@
         <v>2629</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15765,7 +15851,7 @@
         <v>2825</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -15813,7 +15899,7 @@
         <v>3250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>156</v>
@@ -15846,7 +15932,7 @@
         <v>3445</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -15864,7 +15950,7 @@
         <v>3445</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>190</v>
@@ -15882,7 +15968,7 @@
         <v>3247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
@@ -15900,7 +15986,7 @@
         <v>2987</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -15918,10 +16004,10 @@
         <v>2728</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -15951,10 +16037,10 @@
         <v>2487</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -15999,7 +16085,7 @@
         <v>2100</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -16014,10 +16100,10 @@
         <v>2100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16032,10 +16118,10 @@
         <v>1320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -16050,10 +16136,10 @@
         <v>1132</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -16068,10 +16154,10 @@
         <v>920</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -16101,10 +16187,10 @@
         <v>663</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -16119,7 +16205,7 @@
         <v>411</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -16172,10 +16258,10 @@
         <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16190,7 +16276,7 @@
         <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16205,7 +16291,7 @@
         <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -16223,10 +16309,10 @@
         <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16241,7 +16327,7 @@
         <v>640</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16271,10 +16357,10 @@
         <v>940</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16289,7 +16375,7 @@
         <v>1136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -16307,7 +16393,7 @@
         <v>1320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -16355,7 +16441,7 @@
         <v>1760</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16370,7 +16456,7 @@
         <v>1760</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16415,7 +16501,7 @@
         <v>1960</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16445,7 +16531,7 @@
         <v>2100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16460,7 +16546,7 @@
         <v>2268</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -16478,7 +16564,7 @@
         <v>2471</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -16496,10 +16582,10 @@
         <v>2629</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16514,7 +16600,7 @@
         <v>2825</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -16562,7 +16648,7 @@
         <v>3250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>156</v>
@@ -16595,7 +16681,7 @@
         <v>3445</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -16613,7 +16699,7 @@
         <v>3445</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>190</v>
@@ -16631,7 +16717,7 @@
         <v>3247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
@@ -16649,7 +16735,7 @@
         <v>2987</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -16667,10 +16753,10 @@
         <v>2728</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -16700,10 +16786,10 @@
         <v>2487</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -16748,7 +16834,7 @@
         <v>2100</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -16763,10 +16849,10 @@
         <v>2100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -16781,10 +16867,10 @@
         <v>1320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -16799,10 +16885,10 @@
         <v>1132</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -16817,10 +16903,10 @@
         <v>920</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -16850,10 +16936,10 @@
         <v>663</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -16868,7 +16954,7 @@
         <v>411</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -17506,10 +17592,10 @@
         <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -17524,7 +17610,7 @@
         <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17539,7 +17625,7 @@
         <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -17557,10 +17643,10 @@
         <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17575,7 +17661,7 @@
         <v>640</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17605,10 +17691,10 @@
         <v>940</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -17623,7 +17709,7 @@
         <v>1136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -17641,7 +17727,7 @@
         <v>1320</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -17689,7 +17775,7 @@
         <v>1760</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -17704,7 +17790,7 @@
         <v>1760</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -17749,7 +17835,7 @@
         <v>1960</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -17779,7 +17865,7 @@
         <v>2100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -17794,7 +17880,7 @@
         <v>2268</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>100</v>
@@ -17812,7 +17898,7 @@
         <v>2471</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>101</v>
@@ -17830,10 +17916,10 @@
         <v>2629</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -17848,7 +17934,7 @@
         <v>2825</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -17896,7 +17982,7 @@
         <v>3250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>156</v>
@@ -17929,7 +18015,7 @@
         <v>3445</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -17947,7 +18033,7 @@
         <v>3445</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>190</v>
@@ -17965,7 +18051,7 @@
         <v>3247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
@@ -17983,7 +18069,7 @@
         <v>2987</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>108</v>
@@ -18001,10 +18087,10 @@
         <v>2728</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -18034,10 +18120,10 @@
         <v>2487</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -18082,7 +18168,7 @@
         <v>2100</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -18097,10 +18183,10 @@
         <v>2100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -18115,10 +18201,10 @@
         <v>1320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -18133,10 +18219,10 @@
         <v>1132</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -18151,10 +18237,10 @@
         <v>920</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -18184,10 +18270,10 @@
         <v>663</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -18202,7 +18288,7 @@
         <v>411</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
@@ -18219,10 +18305,10 @@
         <v>1860</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -18236,10 +18322,10 @@
         <v>1622</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -18289,10 +18375,10 @@
         <v>348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -18307,7 +18393,7 @@
         <v>348</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -18325,7 +18411,7 @@
         <v>348</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -18343,7 +18429,7 @@
         <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -18361,7 +18447,7 @@
         <v>348</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -18376,7 +18462,7 @@
         <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -18394,7 +18480,7 @@
         <v>348</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -18412,7 +18498,7 @@
         <v>348</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -18430,7 +18516,7 @@
         <v>348</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -18508,10 +18594,10 @@
         <v>478</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -18541,7 +18627,7 @@
         <v>870</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -18556,7 +18642,7 @@
         <v>870</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -18601,10 +18687,10 @@
         <v>870</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -18619,10 +18705,10 @@
         <v>870</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -18652,7 +18738,7 @@
         <v>870</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -18682,10 +18768,10 @@
         <v>1144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -18715,7 +18801,7 @@
         <v>907</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -18745,10 +18831,10 @@
         <v>851</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -18763,7 +18849,7 @@
         <v>560</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -18778,7 +18864,7 @@
         <v>560</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -18793,7 +18879,7 @@
         <v>560</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -18808,10 +18894,10 @@
         <v>471</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -18826,7 +18912,7 @@
         <v>736</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -18892,10 +18978,10 @@
         <v>1130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -18910,7 +18996,7 @@
         <v>907</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -18940,10 +19026,10 @@
         <v>847</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -18958,7 +19044,7 @@
         <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -18976,7 +19062,7 @@
         <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -18994,7 +19080,7 @@
         <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -19012,7 +19098,7 @@
         <v>341</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -19030,7 +19116,7 @@
         <v>341</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19045,7 +19131,7 @@
         <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -19063,7 +19149,7 @@
         <v>341</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -19081,7 +19167,7 @@
         <v>341</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -19099,7 +19185,7 @@
         <v>341</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -19117,7 +19203,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>269</v>
@@ -19135,7 +19221,7 @@
         <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>97</v>
@@ -19153,7 +19239,7 @@
         <v>341</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>282</v>
@@ -19171,7 +19257,7 @@
         <v>341</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -19231,7 +19317,7 @@
         <v>861</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -19276,10 +19362,10 @@
         <v>861</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -19294,10 +19380,10 @@
         <v>861</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19312,7 +19398,7 @@
         <v>861</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -19330,7 +19416,7 @@
         <v>861</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
@@ -19348,7 +19434,7 @@
         <v>861</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -19363,7 +19449,7 @@
         <v>1130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -19378,7 +19464,7 @@
         <v>730</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -19408,7 +19494,7 @@
         <v>547</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -19437,7 +19523,7 @@
         <v>1130</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -19451,10 +19537,10 @@
         <v>445</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -19501,10 +19587,10 @@
         <v>1130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -19520,7 +19606,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19551,10 +19637,10 @@
         <v>847</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -19569,7 +19655,7 @@
         <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -19587,7 +19673,7 @@
         <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -19605,7 +19691,7 @@
         <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -19623,7 +19709,7 @@
         <v>341</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -19642,7 +19728,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19657,7 +19743,7 @@
         <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -19691,7 +19777,7 @@
         <v>341</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -19709,7 +19795,7 @@
         <v>341</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -19727,7 +19813,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>269</v>
@@ -19745,7 +19831,7 @@
         <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>97</v>
@@ -19763,7 +19849,7 @@
         <v>341</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>282</v>
@@ -19782,7 +19868,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -19846,7 +19932,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -19893,10 +19979,10 @@
         <v>861</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -19911,10 +19997,10 @@
         <v>861</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -19929,7 +20015,7 @@
         <v>861</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -19964,7 +20050,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -19980,7 +20066,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -19996,7 +20082,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -20028,7 +20114,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -20059,7 +20145,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -20073,10 +20159,10 @@
         <v>445</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -20123,10 +20209,10 @@
         <v>1130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -20142,7 +20228,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -20173,10 +20259,10 @@
         <v>847</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20191,7 +20277,7 @@
         <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -20209,7 +20295,7 @@
         <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -20227,7 +20313,7 @@
         <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -20245,7 +20331,7 @@
         <v>341</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -20264,7 +20350,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -20279,7 +20365,7 @@
         <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -20313,7 +20399,7 @@
         <v>341</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -20331,7 +20417,7 @@
         <v>341</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -20349,7 +20435,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>269</v>
@@ -20367,7 +20453,7 @@
         <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>97</v>
@@ -20385,7 +20471,7 @@
         <v>341</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>282</v>
@@ -20404,7 +20490,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -20468,7 +20554,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -20515,10 +20601,10 @@
         <v>861</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -20533,10 +20619,10 @@
         <v>861</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -20551,7 +20637,7 @@
         <v>861</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -20586,7 +20672,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -20602,7 +20688,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -20618,7 +20704,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -20650,7 +20736,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -20681,7 +20767,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -20695,10 +20781,10 @@
         <v>445</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -20711,7 +20797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678DA277-2FD7-4CA9-9322-AC8A8EC41D14}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -20748,10 +20834,10 @@
         <v>1130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -20766,7 +20852,7 @@
         <v>907</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -20796,10 +20882,10 @@
         <v>847</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20814,10 +20900,10 @@
         <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -20832,7 +20918,7 @@
         <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -20850,7 +20936,7 @@
         <v>341</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -20868,7 +20954,7 @@
         <v>341</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -20886,7 +20972,7 @@
         <v>341</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -20901,7 +20987,7 @@
         <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -20934,7 +21020,7 @@
         <v>341</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -20952,7 +21038,7 @@
         <v>341</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -20970,7 +21056,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>269</v>
@@ -20988,7 +21074,7 @@
         <v>341</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>97</v>
@@ -21006,7 +21092,7 @@
         <v>341</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>282</v>
@@ -21024,7 +21110,7 @@
         <v>341</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -21084,7 +21170,7 @@
         <v>861</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -21129,10 +21215,10 @@
         <v>861</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -21147,10 +21233,10 @@
         <v>861</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -21165,10 +21251,10 @@
         <v>861</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -21198,7 +21284,7 @@
         <v>861</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -21213,7 +21299,7 @@
         <v>1130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -21228,7 +21314,7 @@
         <v>730</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -21258,7 +21344,7 @@
         <v>547</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -21287,7 +21373,7 @@
         <v>1130</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -21301,10 +21387,10 @@
         <v>445</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -21318,10 +21404,10 @@
         <v>861</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -21335,10 +21421,10 @@
         <v>861</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -21352,10 +21438,10 @@
         <v>406</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -21369,10 +21455,10 @@
         <v>636</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -21465,7 +21551,7 @@
         <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -21482,7 +21568,7 @@
         <v>413</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -21499,7 +21585,7 @@
         <v>413</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -21516,7 +21602,7 @@
         <v>413</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -21533,7 +21619,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -21550,7 +21636,7 @@
         <v>413</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -21567,7 +21653,7 @@
         <v>413</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>93</v>
@@ -21584,7 +21670,7 @@
         <v>413</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>94</v>
@@ -21601,7 +21687,7 @@
         <v>413</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>95</v>
@@ -21618,7 +21704,7 @@
         <v>413</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>96</v>
@@ -21635,7 +21721,7 @@
         <v>413</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>97</v>
@@ -21652,7 +21738,7 @@
         <v>1156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>98</v>
@@ -21699,7 +21785,7 @@
         <v>1417</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>100</v>
@@ -21806,7 +21892,7 @@
         <v>590</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>105</v>
@@ -21838,7 +21924,7 @@
         <v>1085</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>107</v>
@@ -21855,7 +21941,7 @@
         <v>1085</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -21872,7 +21958,7 @@
         <v>1085</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>108</v>
@@ -22028,7 +22114,7 @@
         <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -22045,7 +22131,7 @@
         <v>413</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -22062,7 +22148,7 @@
         <v>413</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -22079,7 +22165,7 @@
         <v>413</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2</v>
@@ -22096,7 +22182,7 @@
         <v>413</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -22113,7 +22199,7 @@
         <v>413</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -22130,7 +22216,7 @@
         <v>413</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>93</v>
@@ -22147,7 +22233,7 @@
         <v>413</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>94</v>
@@ -22164,7 +22250,7 @@
         <v>413</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>95</v>
@@ -22181,7 +22267,7 @@
         <v>413</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>96</v>
@@ -22198,10 +22284,10 @@
         <v>413</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -22215,10 +22301,10 @@
         <v>1156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -22262,7 +22348,7 @@
         <v>1417</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>100</v>
@@ -22369,7 +22455,7 @@
         <v>590</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>105</v>
@@ -22401,10 +22487,10 @@
         <v>1085</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -22418,10 +22504,10 @@
         <v>1085</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -22435,7 +22521,7 @@
         <v>1085</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>108</v>
@@ -22512,10 +22598,10 @@
         <v>500</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -22529,10 +22615,10 @@
         <v>768</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -22546,10 +22632,10 @@
         <v>1085</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -22563,10 +22649,10 @@
         <v>1085</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -24732,7 +24818,7 @@
         <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>91</v>
@@ -24763,7 +24849,7 @@
         <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -24780,7 +24866,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
@@ -24797,7 +24883,7 @@
         <v>945</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>143</v>
@@ -24828,7 +24914,7 @@
         <v>1158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>228</v>
@@ -24845,7 +24931,7 @@
         <v>1344</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -24904,7 +24990,7 @@
         <v>2542</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>95</v>
@@ -24921,7 +25007,7 @@
         <v>2760</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>148</v>
@@ -24952,7 +25038,7 @@
         <v>3020</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>230</v>
@@ -24969,7 +25055,7 @@
         <v>3273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -24986,7 +25072,7 @@
         <v>3494</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>231</v>
@@ -25017,7 +25103,7 @@
         <v>3494</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
@@ -25034,7 +25120,7 @@
         <v>3308</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>233</v>
@@ -25051,7 +25137,7 @@
         <v>2725</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>234</v>
@@ -25068,7 +25154,7 @@
         <v>2541</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>235</v>
@@ -25085,7 +25171,7 @@
         <v>2288</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>236</v>
@@ -25116,7 +25202,7 @@
         <v>2148</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>238</v>
@@ -25245,7 +25331,7 @@
         <v>1368</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -25262,7 +25348,7 @@
         <v>1187</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>246</v>
@@ -25279,7 +25365,7 @@
         <v>1007</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>247</v>
@@ -25296,7 +25382,7 @@
         <v>850</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>248</v>
@@ -25341,7 +25427,7 @@
         <v>442</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>250</v>
@@ -25372,7 +25458,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>252</v>
